--- a/API/HIST12526.xlsx
+++ b/API/HIST12526.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="340">
   <si>
     <t>Home team</t>
   </si>
@@ -526,6 +526,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>0,5193904744</t>
   </si>
   <si>
@@ -565,6 +568,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -631,7 +637,7 @@
     <t>0,02246896161</t>
   </si>
   <si>
-    <t>1</t>
+    <t>5</t>
   </si>
   <si>
     <t>0,326727007</t>
@@ -652,6 +658,9 @@
     <t>0,01655661558</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0,7922518129</t>
   </si>
   <si>
@@ -740,12 +749,6 @@
   </si>
   <si>
     <t>0,08652649527</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>0,7171719571</t>
@@ -1401,8 +1404,8 @@
       <c r="J2" s="3">
         <v>0.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>2.0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -1439,8 +1442,8 @@
       <c r="J3" s="3">
         <v>6.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>8.0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
@@ -1477,8 +1480,8 @@
       <c r="J4" s="3">
         <v>3.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>6.0</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -1515,8 +1518,8 @@
       <c r="J5" s="3">
         <v>3.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>4.0</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>
@@ -1553,8 +1556,8 @@
       <c r="J6" s="3">
         <v>2.0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>1.0</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>19</v>
@@ -1591,8 +1594,8 @@
       <c r="J7" s="3">
         <v>4.0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>3.0</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>19</v>
@@ -1629,8 +1632,8 @@
       <c r="J8" s="3">
         <v>1.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>7.0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -1667,8 +1670,8 @@
       <c r="J9" s="3">
         <v>4.0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>2.0</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>19</v>
@@ -1705,8 +1708,8 @@
       <c r="J10" s="3">
         <v>3.0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>1.0</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>19</v>
@@ -1796,8 +1799,8 @@
       <c r="J2" s="3">
         <v>5.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>6.0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -1834,8 +1837,8 @@
       <c r="J3" s="3">
         <v>3.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>1.0</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>19</v>
@@ -1872,8 +1875,8 @@
       <c r="J4" s="3">
         <v>1.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>5.0</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>38</v>
@@ -1910,8 +1913,8 @@
       <c r="J5" s="3">
         <v>2.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>3.0</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
@@ -1948,8 +1951,8 @@
       <c r="J6" s="3">
         <v>2.0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>0.0</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>38</v>
@@ -1986,8 +1989,8 @@
       <c r="J7" s="3">
         <v>2.0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>2.0</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>14</v>
@@ -2024,8 +2027,8 @@
       <c r="J8" s="3">
         <v>4.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>1.0</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>19</v>
@@ -2062,8 +2065,8 @@
       <c r="J9" s="3">
         <v>0.0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>5.0</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>14</v>
@@ -2100,8 +2103,8 @@
       <c r="J10" s="3">
         <v>7.0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>6.0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>14</v>
@@ -2191,8 +2194,8 @@
       <c r="J2" s="3">
         <v>1.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>1.0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -2229,8 +2232,8 @@
       <c r="J3" s="3">
         <v>1.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>1.0</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>38</v>
@@ -2267,8 +2270,8 @@
       <c r="J4" s="3">
         <v>1.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>4.0</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>38</v>
@@ -2305,8 +2308,8 @@
       <c r="J5" s="3">
         <v>2.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>4.0</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>38</v>
@@ -2343,8 +2346,8 @@
       <c r="J6" s="3">
         <v>4.0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>3.0</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>14</v>
@@ -2381,8 +2384,8 @@
       <c r="J7" s="3">
         <v>6.0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>0.0</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>19</v>
@@ -2419,8 +2422,8 @@
       <c r="J8" s="3">
         <v>2.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>2.0</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>19</v>
@@ -2457,8 +2460,8 @@
       <c r="J9" s="3">
         <v>4.0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>1.0</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>14</v>
@@ -2495,8 +2498,8 @@
       <c r="J10" s="3">
         <v>2.0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>4.0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>14</v>
@@ -2533,8 +2536,8 @@
       <c r="J11" s="3">
         <v>3.0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+      <c r="K11" s="1">
+        <v>3.0</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>14</v>
@@ -2624,8 +2627,8 @@
       <c r="J2" s="3">
         <v>2.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>6.0</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>19</v>
@@ -2662,8 +2665,8 @@
       <c r="J3" s="3">
         <v>0.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>3.0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
@@ -2700,8 +2703,8 @@
       <c r="J4" s="3">
         <v>3.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>2.0</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -2738,8 +2741,8 @@
       <c r="J5" s="3">
         <v>4.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>4.0</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>14</v>
@@ -2776,8 +2779,8 @@
       <c r="J6" s="3">
         <v>4.0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>3.0</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>14</v>
@@ -2814,8 +2817,8 @@
       <c r="J7" s="3">
         <v>1.0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>4.0</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>38</v>
@@ -2852,8 +2855,8 @@
       <c r="J8" s="3">
         <v>0.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>2.0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -2890,8 +2893,8 @@
       <c r="J9" s="3">
         <v>2.0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>1.0</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>19</v>
@@ -2928,8 +2931,8 @@
       <c r="J10" s="3">
         <v>3.0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>6.0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>14</v>
@@ -2966,8 +2969,8 @@
       <c r="J11" s="3">
         <v>2.0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+      <c r="K11" s="1">
+        <v>4.0</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>14</v>
@@ -3057,8 +3060,8 @@
       <c r="J2" s="3">
         <v>4.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>2.0</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>19</v>
@@ -3095,8 +3098,8 @@
       <c r="J3" s="3">
         <v>2.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>4.0</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>19</v>
@@ -3133,8 +3136,8 @@
       <c r="J4" s="3">
         <v>4.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>3.0</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -3171,8 +3174,8 @@
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>1.0</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>14</v>
@@ -3209,8 +3212,8 @@
       <c r="J6" s="3">
         <v>2.0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>3.0</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>14</v>
@@ -3247,8 +3250,8 @@
       <c r="J7" s="3">
         <v>3.0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>2.0</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>14</v>
@@ -3285,8 +3288,8 @@
       <c r="J8" s="3">
         <v>4.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>3.0</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>19</v>
@@ -3323,8 +3326,8 @@
       <c r="J9" s="3">
         <v>2.0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>3.0</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>19</v>
@@ -3361,8 +3364,8 @@
       <c r="J10" s="3">
         <v>2.0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>5.0</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>14</v>
@@ -3399,8 +3402,8 @@
       <c r="J11" s="3">
         <v>3.0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+      <c r="K11" s="1">
+        <v>1.0</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>19</v>
@@ -3490,8 +3493,8 @@
       <c r="J2" s="3">
         <v>1.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>3.0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -3528,8 +3531,8 @@
       <c r="J3" s="3">
         <v>4.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>3.0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
@@ -3566,8 +3569,8 @@
       <c r="J4" s="3">
         <v>0.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>6.0</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>14</v>
@@ -3604,8 +3607,8 @@
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>5.0</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>38</v>
@@ -3642,8 +3645,8 @@
       <c r="J6" s="3">
         <v>3.0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>5.0</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>19</v>
@@ -3680,8 +3683,8 @@
       <c r="J7" s="3">
         <v>2.0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>5.0</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>38</v>
@@ -3718,8 +3721,8 @@
       <c r="J8" s="3">
         <v>1.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>0.0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
@@ -3756,8 +3759,8 @@
       <c r="J9" s="3">
         <v>1.0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>3.0</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>38</v>
@@ -3794,8 +3797,8 @@
       <c r="J10" s="3">
         <v>0.0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>2.0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>14</v>
@@ -3832,8 +3835,8 @@
       <c r="J11" s="3">
         <v>3.0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+      <c r="K11" s="1">
+        <v>4.0</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>19</v>
@@ -3870,8 +3873,8 @@
       <c r="J12" s="3">
         <v>1.0</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
+      <c r="K12" s="1">
+        <v>5.0</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>38</v>
@@ -3908,8 +3911,8 @@
       <c r="J13" s="3">
         <v>1.0</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
+      <c r="K13" s="1">
+        <v>3.0</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>38</v>
@@ -4041,10 +4044,10 @@
       <c r="J2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4056,22 +4059,22 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>168</v>
@@ -4079,10 +4082,10 @@
       <c r="J3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4094,31 +4097,31 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>19</v>
@@ -4126,7 +4129,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -4137,13 +4143,13 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>161</v>
@@ -4160,10 +4166,10 @@
       <c r="J6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4175,22 +4181,22 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>168</v>
@@ -4198,10 +4204,10 @@
       <c r="J7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4222,22 +4228,22 @@
         <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>19</v>
@@ -4245,7 +4251,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -4256,22 +4265,22 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>168</v>
@@ -4279,8 +4288,8 @@
       <c r="J10" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>19</v>
@@ -4294,31 +4303,31 @@
         <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>38</v>
@@ -4332,39 +4341,42 @@
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -4375,22 +4387,22 @@
         <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>167</v>
@@ -4398,8 +4410,8 @@
       <c r="J14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
+      <c r="K14" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>19</v>
@@ -4413,33 +4425,33 @@
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4451,31 +4463,31 @@
         <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>38</v>
@@ -4483,7 +4495,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -4494,31 +4509,31 @@
         <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>38</v>
@@ -4532,31 +4547,31 @@
         <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>169</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>19</v>
@@ -4570,39 +4585,42 @@
         <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -4613,33 +4631,33 @@
         <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4651,22 +4669,22 @@
         <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>167</v>
@@ -4674,10 +4692,10 @@
       <c r="J23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4689,31 +4707,31 @@
         <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>38</v>
@@ -4721,7 +4739,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -4732,31 +4753,31 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>19</v>
@@ -4770,22 +4791,22 @@
         <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>167</v>
@@ -4793,10 +4814,10 @@
       <c r="J27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="K27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4808,39 +4829,42 @@
         <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -4851,22 +4875,22 @@
         <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>168</v>
@@ -4874,10 +4898,10 @@
       <c r="J30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="K30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4889,22 +4913,22 @@
         <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>168</v>
@@ -4912,10 +4936,10 @@
       <c r="J31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="K31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4927,39 +4951,42 @@
         <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -4970,22 +4997,22 @@
         <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>167</v>
@@ -4993,8 +5020,8 @@
       <c r="J34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>14</v>
+      <c r="K34" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>19</v>
@@ -5008,31 +5035,31 @@
         <v>118</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>38</v>
@@ -5046,22 +5073,22 @@
         <v>120</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>168</v>
@@ -5069,16 +5096,19 @@
       <c r="J36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="2" t="s">
+      <c r="K36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -5089,31 +5119,31 @@
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>38</v>
@@ -5127,33 +5157,33 @@
         <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5165,22 +5195,22 @@
         <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>167</v>
@@ -5188,16 +5218,19 @@
       <c r="J40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="2" t="s">
+      <c r="K40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -5208,31 +5241,31 @@
         <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>38</v>
@@ -5246,33 +5279,33 @@
         <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>38</v>
       </c>
     </row>
